--- a/biology/Médecine/Liste_des_antirétroviraux_du_VIH_par_nom_commercial/Liste_des_antirétroviraux_du_VIH_par_nom_commercial.xlsx
+++ b/biology/Médecine/Liste_des_antirétroviraux_du_VIH_par_nom_commercial/Liste_des_antirétroviraux_du_VIH_par_nom_commercial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un antirétroviral (ARV) est une classe de médicaments utilisés pour le traitement des infections liées aux rétrovirus dont le VIH (virus de l'immunodéficience humaine). Ceux-ci sont généralement désignés par un nom commun qui diffère de leur nom commercial ; dans le cadre des antirétroviraux du VIH, ceux-ci sont généralement utilisés en trithérapie et certains sont proposés commercialement sous forme combinée de deux ou trois antirétroviraux.
-Selon une étude clinique dont les résultats ont été publiés le 11 mai 2011, une prise rapide d'antirétroviraux après la transmission du virus d'une personne séropositive à une personne séronégative diminuerait fortement (96 %) le risque de transmission du VIH[1]
+Selon une étude clinique dont les résultats ont été publiés le 11 mai 2011, une prise rapide d'antirétroviraux après la transmission du virus d'une personne séropositive à une personne séronégative diminuerait fortement (96 %) le risque de transmission du VIH
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>A</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agénérase : amprénavir (IP)
 Aptivus : tipranavir (IP)
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>C</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Combivir : combinaison de zidovudine et de lamivudine (NRTI)
 Crixivan : indinavir (IP)</t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>E</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Emtriva : emtricitabine (NRTI)
 Epivir : lamivudine (NRTI)
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>H</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hepsera : adefovir (NRTI)
 Hivid : zalcitabine (NRTI)</t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Invirase : saquinavir (IP)
 Isentress : Raltégravir (II)
@@ -652,7 +674,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -670,7 +692,9 @@
           <t>K</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Kaletra : lopinavir/ritonavir (IP)
 Kivexa : combinaison d'abacavir et lamivudine (NRTI)</t>
@@ -683,7 +707,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -701,7 +725,9 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Norvir : ritonavir (IP, booster)</t>
         </is>
@@ -713,7 +739,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -731,7 +757,9 @@
           <t>P</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Prezista : darunavir</t>
         </is>
@@ -743,7 +771,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -761,7 +789,9 @@
           <t>R</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Rescriptor : delavirdine (nNRTI)
 Retrovir : zidovudine (NRTI)
@@ -775,7 +805,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -793,7 +823,9 @@
           <t>S</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Sustiva (ou Stocrin) : éfavirenz</t>
         </is>
@@ -805,7 +837,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -823,7 +855,9 @@
           <t>T</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>Trizivir : combinaison de zidovudine, lamivudine et abacavir (NRTI)
 Truvada : combinaison d'emtricitabine (NRTI) et tenofovir (NtRTI)
@@ -837,7 +871,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -855,7 +889,9 @@
           <t>V</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
         <is>
           <t>Videx : didanosine (NRTI)
 Viracept : nelfinavir (IP)
@@ -870,7 +906,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Liste_des_antir%C3%A9troviraux_du_VIH_par_nom_commercial</t>
+          <t>Liste_des_antirétroviraux_du_VIH_par_nom_commercial</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -888,7 +924,9 @@
           <t>Z</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Zerit : stavudine (NRTI)
 Ziagen : abacavir (NRTI)</t>
